--- a/Reports/July20-2021.xlsx
+++ b/Reports/July20-2021.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1Github\Disnet_ERGM\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF265237-AC51-4D55-B989-19C1C1845824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D09B10-8828-4DE8-9F67-FFB31EE871B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="4485" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3630" yWindow="4485" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ego" sheetId="1" r:id="rId1"/>
-    <sheet name="importance" sheetId="2" r:id="rId2"/>
-    <sheet name="homophily" sheetId="3" r:id="rId3"/>
+    <sheet name="importance" sheetId="2" r:id="rId1"/>
+    <sheet name="homophily" sheetId="3" r:id="rId2"/>
+    <sheet name="ego" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -303,10 +303,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,237 +586,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="57.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>3.0609999999999999E-3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>0.113036</v>
-      </c>
-      <c r="F3">
-        <v>0.83297900000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>4.84E-4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4">
-        <v>8.6420000000000004E-3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>3.9130999999999999E-2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5">
-        <v>0.966615</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>1.4940000000000001E-3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>4.7447000000000003E-2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>0.67685399999999996</v>
-      </c>
-      <c r="F8">
-        <v>0.59390299999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>2.9058E-2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="F10">
-        <v>0.36795600000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DAEFE3-CE55-4741-8031-AB58FE1BC70D}">
   <dimension ref="E2:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
@@ -832,20 +605,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5">
         <v>201902</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5">
         <v>202001</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4">
+      <c r="J2" s="5"/>
+      <c r="K2" s="5">
         <v>202002</v>
       </c>
-      <c r="L2" s="4"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E3" s="3" t="s">
@@ -1394,10 +1167,10 @@
       </c>
     </row>
     <row r="25" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E26" s="3"/>
@@ -1406,10 +1179,10 @@
       <c r="H26" s="3"/>
     </row>
     <row r="49" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
     </row>
     <row r="50" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E50" s="3"/>
@@ -1429,7 +1202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{703C9904-CB58-41F7-BA7C-B12844634198}">
   <dimension ref="D5:G72"/>
   <sheetViews>
@@ -1445,11 +1218,11 @@
   </cols>
   <sheetData>
     <row r="5" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>201902</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D6" s="3" t="s">
@@ -1673,11 +1446,11 @@
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D27" s="4">
+      <c r="D27" s="5">
         <v>202001</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D28" s="3" t="s">
@@ -1911,11 +1684,11 @@
       </c>
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D51" s="4">
+      <c r="D51" s="5">
         <v>202002</v>
       </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
     </row>
     <row r="52" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D52" s="3" t="s">
@@ -2156,4 +1929,231 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="57.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3.0609999999999999E-3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>0.113036</v>
+      </c>
+      <c r="F3">
+        <v>0.83297900000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>4.84E-4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4">
+        <v>8.6420000000000004E-3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>3.9130999999999999E-2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <v>0.966615</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>1.4940000000000001E-3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>4.7447000000000003E-2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>0.67685399999999996</v>
+      </c>
+      <c r="F8">
+        <v>0.59390299999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2.9058E-2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>0.36795600000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>